--- a/BNP Excel Sheet.xlsx
+++ b/BNP Excel Sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Facility list"/>
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="147">
+  <si>
+    <t>RunID</t>
+  </si>
   <si>
     <t>AccountName</t>
   </si>
@@ -30,6 +33,12 @@
     <t>BillingFreq</t>
   </si>
   <si>
+    <t>BNP Account Name</t>
+  </si>
+  <si>
+    <t>MultiInvoice</t>
+  </si>
+  <si>
     <t>HIH LOGISTICS, INC</t>
   </si>
   <si>
@@ -39,13 +48,25 @@
     <t>Bimonthly</t>
   </si>
   <si>
+    <t>HIH LOGISTICS INC -- Fontana/Inovation/Seabrook</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
     <t>Innovation</t>
   </si>
   <si>
+    <t>VITA COCO</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
     <t>ALL MARKET INC / VITA COCO</t>
   </si>
   <si>
-    <t>Kent</t>
+    <t xml:space="preserve"> VITA COCO</t>
   </si>
   <si>
     <t>Morgan Lakes</t>
@@ -66,13 +87,379 @@
     <t>CIRCUIT CITY CORPORATION INC</t>
   </si>
   <si>
+    <t>Aterian</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>ATERIAN GROUP, INC.</t>
+  </si>
+  <si>
+    <t>DeerStags</t>
+  </si>
+  <si>
+    <t>DEER STAGS</t>
+  </si>
+  <si>
+    <t>July&amp;CoPTYLTDGrand Prairie</t>
+  </si>
+  <si>
+    <t>JULY &amp; CO PTY LTD</t>
+  </si>
+  <si>
+    <t>LeeKumKee</t>
+  </si>
+  <si>
+    <t>LEE KUM KEE (U.S.A.) INC.</t>
+  </si>
+  <si>
+    <t>Luna Wellness LLC</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Outer Inc</t>
+  </si>
+  <si>
+    <t>Willow</t>
+  </si>
+  <si>
+    <t>OUTER, INC</t>
+  </si>
+  <si>
+    <t>Planahead</t>
+  </si>
+  <si>
+    <t>Fontana</t>
+  </si>
+  <si>
+    <t>PLANAHEAD</t>
+  </si>
+  <si>
+    <t>SG Company</t>
+  </si>
+  <si>
+    <t>THE SG COMPANIES</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Bexco Enterprises</t>
+  </si>
+  <si>
+    <t>BEXCO ENTERPRISES, INC</t>
+  </si>
+  <si>
+    <t>Simple Modern</t>
+  </si>
+  <si>
+    <t>SIMPLE MODERN</t>
+  </si>
+  <si>
+    <t>Sunrise Global Marketing</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>SUNRISE GLOBAL MARKETING, LLC</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>Sans Wine &amp; Spirits</t>
+  </si>
+  <si>
+    <t>SANS WINE &amp; SPIRITS</t>
+  </si>
+  <si>
+    <t>Toughbuilt Industries</t>
+  </si>
+  <si>
+    <t>TOUGHBUILT INDUSTRIES, INC.</t>
+  </si>
+  <si>
+    <t>Euromarket Designs Inc</t>
+  </si>
+  <si>
+    <t>Euromarket Designs, Inc.</t>
+  </si>
+  <si>
+    <t>International Textile &amp; Apparel Inc</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL TEXTILE &amp; APPAREL, INC</t>
+  </si>
+  <si>
+    <t>Castlery USA</t>
+  </si>
+  <si>
+    <t>CASTLERY USA</t>
+  </si>
+  <si>
+    <t>The Fifty Fifty Group</t>
+  </si>
+  <si>
+    <t>THE FIFTY/FIFTY GROUP, INC DBA LOLA PRODUCTS</t>
+  </si>
+  <si>
+    <t>Tytus Grills, LLC</t>
+  </si>
+  <si>
+    <t>TYTUS GRILLS, LLC</t>
+  </si>
+  <si>
+    <t>JSONIC SERVICES</t>
+  </si>
+  <si>
+    <t>Redbluff</t>
+  </si>
+  <si>
+    <t>JSONIC SERVICES INC</t>
+  </si>
+  <si>
+    <t>Cooler Master</t>
+  </si>
+  <si>
+    <t>COOLER MASTER</t>
+  </si>
+  <si>
+    <t>TCU Trading LTD</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>TCU TRADING LTD</t>
+  </si>
+  <si>
+    <t>Galanz Americas Limited Company</t>
+  </si>
+  <si>
+    <t>GALANZ AMERICAS LIMITED COMPANY</t>
+  </si>
+  <si>
+    <t>SCHC-Wilsonart</t>
+  </si>
+  <si>
+    <t>SCHC - Wilsonart</t>
+  </si>
+  <si>
+    <t>Delta Electronics</t>
+  </si>
+  <si>
+    <t>DELTA ELECTRONICS</t>
+  </si>
+  <si>
+    <t>Acme Food Sales</t>
+  </si>
+  <si>
+    <t>ACME FOOD SALES INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aterian Group Inc</t>
+  </si>
+  <si>
+    <t>BA Sports Nutrition</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>BA SPORTS NUTRITION LLC</t>
+  </si>
+  <si>
+    <t>Banyan International</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>BANYAN INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>ENVISION PERIPHERALS INC.(EPI Non-Bonded)</t>
+  </si>
+  <si>
+    <t>Intradeco Ivory</t>
+  </si>
+  <si>
+    <t>INTRADECO-IVORY</t>
+  </si>
+  <si>
+    <t>Intradeco Knothe</t>
+  </si>
+  <si>
+    <t>INTRADECO-KNOTHE</t>
+  </si>
+  <si>
+    <t>King's Hawaiian</t>
+  </si>
+  <si>
+    <t>KING'S HAWAIIAN</t>
+  </si>
+  <si>
+    <t>Quality 4400</t>
+  </si>
+  <si>
+    <t>Pepsico</t>
+  </si>
+  <si>
+    <t>PEPSICO</t>
+  </si>
+  <si>
+    <t>SafeCatch</t>
+  </si>
+  <si>
+    <t>SAFE CATCH, INC.</t>
+  </si>
+  <si>
+    <t>Sunpower Corporation</t>
+  </si>
+  <si>
+    <t>SUNPOWER CORPORATION</t>
+  </si>
+  <si>
+    <t>Surf 9 LLC</t>
+  </si>
+  <si>
+    <t>Lakewood</t>
+  </si>
+  <si>
+    <t>SURF 9 LLC</t>
+  </si>
+  <si>
     <t>AccountID</t>
   </si>
   <si>
+    <t xml:space="preserve">International Textile &amp; Apparel </t>
+  </si>
+  <si>
     <t>FacilityID</t>
   </si>
   <si>
     <t>FacilityName</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>seabrookbot</t>
+  </si>
+  <si>
+    <t>passsea</t>
+  </si>
+  <si>
+    <t>innovationbot</t>
+  </si>
+  <si>
+    <t>passinno</t>
+  </si>
+  <si>
+    <t>kentbot</t>
+  </si>
+  <si>
+    <t>passkent</t>
+  </si>
+  <si>
+    <t>morganlakebot</t>
+  </si>
+  <si>
+    <t>passlake</t>
+  </si>
+  <si>
+    <t>valleyviewbot</t>
+  </si>
+  <si>
+    <t>pass1234</t>
+  </si>
+  <si>
+    <t>viabaronbot</t>
+  </si>
+  <si>
+    <t>passvia</t>
+  </si>
+  <si>
+    <t>savannahbot</t>
+  </si>
+  <si>
+    <t>passsav</t>
+  </si>
+  <si>
+    <t>Grand Prairie</t>
+  </si>
+  <si>
+    <t>grandpbot</t>
+  </si>
+  <si>
+    <t>passgrand</t>
+  </si>
+  <si>
+    <t>newjerseybot</t>
+  </si>
+  <si>
+    <t>passnew</t>
+  </si>
+  <si>
+    <t>fontanabot</t>
+  </si>
+  <si>
+    <t>passfont</t>
+  </si>
+  <si>
+    <t>murphybot</t>
+  </si>
+  <si>
+    <t>passmur</t>
+  </si>
+  <si>
+    <t>tacomabot</t>
+  </si>
+  <si>
+    <t>passtaco</t>
+  </si>
+  <si>
+    <t>charlestonbot</t>
+  </si>
+  <si>
+    <t>passcharleston</t>
+  </si>
+  <si>
+    <t>redbluffbot</t>
+  </si>
+  <si>
+    <t>passred</t>
+  </si>
+  <si>
+    <t>greenwoodbot</t>
+  </si>
+  <si>
+    <t>passgreen</t>
+  </si>
+  <si>
+    <t>indianabot</t>
+  </si>
+  <si>
+    <t>passindi</t>
+  </si>
+  <si>
+    <t>qualitybot</t>
+  </si>
+  <si>
+    <t>pass4400</t>
+  </si>
+  <si>
+    <t>lakewoodbot</t>
   </si>
 </sst>
 </file>
@@ -80,13 +467,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -122,10 +516,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -133,11 +533,14 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,70 +844,292 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="11.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="9.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="13.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -517,54 +1142,358 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="28.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="43.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -577,114 +1506,1056 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="10.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="45.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="12.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/BNP Excel Sheet.xlsx
+++ b/BNP Excel Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="186">
   <si>
     <t>RunID</t>
   </si>
@@ -108,7 +108,7 @@
     <t>July&amp;CoPTYLTD</t>
   </si>
   <si>
-    <t>Grand Praire</t>
+    <t>Grand Prairie</t>
   </si>
   <si>
     <t>JULY &amp; CO PTY LTD</t>
@@ -496,9 +496,6 @@
   </si>
   <si>
     <t>passsav</t>
-  </si>
-  <si>
-    <t>Grand Prairie</t>
   </si>
   <si>
     <t>grandpbot</t>
@@ -604,7 +601,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1093,13 +1090,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>160</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1110,10 +1107,10 @@
         <v>34</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>162</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1124,10 +1121,10 @@
         <v>39</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -1138,10 +1135,10 @@
         <v>44</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -1152,10 +1149,10 @@
         <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -1166,10 +1163,10 @@
         <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -1180,10 +1177,10 @@
         <v>70</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>172</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -1194,10 +1191,10 @@
         <v>75</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -1208,10 +1205,10 @@
         <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -1222,10 +1219,10 @@
         <v>91</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -1236,10 +1233,10 @@
         <v>102</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>180</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -1250,7 +1247,7 @@
         <v>111</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>152</v>
@@ -1264,10 +1261,10 @@
         <v>120</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -1278,10 +1275,10 @@
         <v>123</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1805,7 +1802,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1826,7 +1823,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1847,7 +1844,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1868,7 +1865,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1889,7 +1886,7 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1910,7 +1907,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1931,7 +1928,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1952,7 +1949,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1973,7 +1970,7 @@
       </c>
       <c r="G10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1994,7 +1991,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2015,7 +2012,7 @@
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2036,7 +2033,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2057,7 +2054,7 @@
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2078,7 +2075,7 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2099,7 +2096,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2120,7 +2117,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2141,7 +2138,7 @@
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2162,7 +2159,7 @@
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2183,7 +2180,7 @@
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2204,7 +2201,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -2225,7 +2222,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2246,7 +2243,7 @@
       </c>
       <c r="G23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>

--- a/BNP Excel Sheet.xlsx
+++ b/BNP Excel Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="191">
   <si>
     <t>RunID</t>
   </si>
@@ -42,403 +42,418 @@
     <t>Downloaded</t>
   </si>
   <si>
+    <t>HIHLOGISTICSINC</t>
+  </si>
+  <si>
+    <t>Seabrook</t>
+  </si>
+  <si>
+    <t>Bimonthly</t>
+  </si>
+  <si>
+    <t>HIH LOGISTICS INC -- Fontana/Inovation/Seabrook</t>
+  </si>
+  <si>
+    <t>TRINA SOLAR-HIH LOGISTICS,INC.FONTANA/POOLER</t>
+  </si>
+  <si>
+    <t>Innovation</t>
+  </si>
+  <si>
+    <t>VITACOCO</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>ALL MARKET INC / VITA COCO</t>
+  </si>
+  <si>
+    <t>Morgan Lakes</t>
+  </si>
+  <si>
+    <t>Valley View</t>
+  </si>
+  <si>
+    <t>ViaBaron</t>
+  </si>
+  <si>
+    <t>ZOOMGETLLC</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>ZOOMGET, LLC</t>
+  </si>
+  <si>
+    <t>CIRCUITCITYCORPORATIONINC</t>
+  </si>
+  <si>
+    <t>CIRCUIT CITY CORPORATION INC</t>
+  </si>
+  <si>
+    <t>Aterian</t>
+  </si>
+  <si>
+    <t>Savannah</t>
+  </si>
+  <si>
+    <t>ATERIAN GROUP, INC.</t>
+  </si>
+  <si>
+    <t>DeerStags</t>
+  </si>
+  <si>
+    <t>DEER STAGS</t>
+  </si>
+  <si>
+    <t>July&amp;CoPTYLTD</t>
+  </si>
+  <si>
+    <t>Grand Prairie</t>
+  </si>
+  <si>
+    <t>JULY &amp; CO PTY LTD</t>
+  </si>
+  <si>
+    <t>LeeKumKee</t>
+  </si>
+  <si>
+    <t>LEE KUM KEE (U.S.A.) INC.</t>
+  </si>
+  <si>
+    <t>LunaWellnessLLC</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Luna Wellness LLC</t>
+  </si>
+  <si>
+    <t>OuterInc</t>
+  </si>
+  <si>
+    <t>Willow</t>
+  </si>
+  <si>
+    <t>OUTER, INC</t>
+  </si>
+  <si>
+    <t>Planahead</t>
+  </si>
+  <si>
+    <t>Fontana</t>
+  </si>
+  <si>
+    <t>PLANAHEAD</t>
+  </si>
+  <si>
+    <t>PLANAHEAD,LLC.</t>
+  </si>
+  <si>
+    <t>SGCompany</t>
+  </si>
+  <si>
+    <t>THE SG COMPANIES</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>BexcoEnterprises</t>
+  </si>
+  <si>
+    <t>BEXCO ENTERPRISES, INC</t>
+  </si>
+  <si>
+    <t>MILLION DOLLAR BABY</t>
+  </si>
+  <si>
+    <t>SimpleModern</t>
+  </si>
+  <si>
+    <t>SIMPLE MODERN</t>
+  </si>
+  <si>
+    <t>SunriseGlobalMarketing</t>
+  </si>
+  <si>
+    <t>Tacoma</t>
+  </si>
+  <si>
+    <t>SUNRISE GLOBAL MARKETING, LLC</t>
+  </si>
+  <si>
+    <t>Charleston</t>
+  </si>
+  <si>
+    <t>SansWine&amp;Spirits</t>
+  </si>
+  <si>
+    <t>SANS WINE &amp; SPIRITS</t>
+  </si>
+  <si>
+    <t>Sans Wine &amp; Spirits</t>
+  </si>
+  <si>
+    <t>ToughbuiltIndustries</t>
+  </si>
+  <si>
+    <t>TOUGHBUILT INDUSTRIES, INC.</t>
+  </si>
+  <si>
+    <t>EuromarketDesignsInc</t>
+  </si>
+  <si>
+    <t>Euromarket Designs, Inc.</t>
+  </si>
+  <si>
+    <t>InternationalTextile&amp;ApparelInc</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL TEXTILE &amp; APPAREL, INC</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL TEXTILE &amp; APPAREL</t>
+  </si>
+  <si>
+    <t>CastleryUSA</t>
+  </si>
+  <si>
+    <t>CASTLERY USA</t>
+  </si>
+  <si>
+    <t>TheFiftyFiftyGroup</t>
+  </si>
+  <si>
+    <t>THE FIFTY/FIFTY GROUP, INC DBA LOLA PRODUCTS</t>
+  </si>
+  <si>
+    <t>TytusGrillsLLC</t>
+  </si>
+  <si>
+    <t>TYTUS GRILLS, LLC</t>
+  </si>
+  <si>
+    <t>JSONICSERVICES</t>
+  </si>
+  <si>
+    <t>Redbluff</t>
+  </si>
+  <si>
+    <t>JSONIC SERVICES INC</t>
+  </si>
+  <si>
+    <t>CoolerMaster</t>
+  </si>
+  <si>
+    <t>COOLER MASTER</t>
+  </si>
+  <si>
+    <t>TCUTradingLTD</t>
+  </si>
+  <si>
+    <t>Greenwood</t>
+  </si>
+  <si>
+    <t>TCU TRADING LTD</t>
+  </si>
+  <si>
+    <t>GalanzAmericasLimitedCompany</t>
+  </si>
+  <si>
+    <t>GALANZ AMERICAS LIMITED COMPANY</t>
+  </si>
+  <si>
+    <t>SCHC-Wilsonart</t>
+  </si>
+  <si>
+    <t>SCHC - Wilsonart</t>
+  </si>
+  <si>
+    <t>DeltaElectronics</t>
+  </si>
+  <si>
+    <t>DELTA ELECTRONICS</t>
+  </si>
+  <si>
+    <t>DELTA ELECTRONICS (AMERICAS)LTD-NEW</t>
+  </si>
+  <si>
+    <t>AcmeFoodSales</t>
+  </si>
+  <si>
+    <t>ACME FOOD SALES INC</t>
+  </si>
+  <si>
+    <t>AterianGroupInc</t>
+  </si>
+  <si>
+    <t>BASportsNutrition</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>BA SPORTS NUTRITION LLC</t>
+  </si>
+  <si>
+    <t>BanyanInternational</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>BANYAN INTERNATIONAL</t>
+  </si>
+  <si>
+    <t>EPI</t>
+  </si>
+  <si>
+    <t>ENVISION PERIPHERALS INC.(EPI Non-Bonded)</t>
+  </si>
+  <si>
+    <t>Envision Peripherals, Inc</t>
+  </si>
+  <si>
+    <t>IntradecoIvory</t>
+  </si>
+  <si>
+    <t>INTRADECO-IVORY</t>
+  </si>
+  <si>
+    <t>IntradecoKnothe</t>
+  </si>
+  <si>
+    <t>INTRADECO-KNOTHE</t>
+  </si>
+  <si>
+    <t>King'sHawaiian</t>
+  </si>
+  <si>
+    <t>KING'S HAWAIIAN</t>
+  </si>
+  <si>
+    <t>Quality 4400</t>
+  </si>
+  <si>
+    <t>Pepsico</t>
+  </si>
+  <si>
+    <t>PEPSICO</t>
+  </si>
+  <si>
+    <t>SafeCatch</t>
+  </si>
+  <si>
+    <t>SAFE CATCH, INC.</t>
+  </si>
+  <si>
+    <t>SunpowerCorporation</t>
+  </si>
+  <si>
+    <t>SUNPOWER CORPORATION</t>
+  </si>
+  <si>
+    <t>SunPower - Riverside</t>
+  </si>
+  <si>
+    <t>Surf9LLC</t>
+  </si>
+  <si>
+    <t>Lakewood</t>
+  </si>
+  <si>
+    <t>SURF 9 LLC</t>
+  </si>
+  <si>
+    <t>LumistellaCompany</t>
+  </si>
+  <si>
+    <t>THE LUMISTELLA COMPANY</t>
+  </si>
+  <si>
+    <t>PassionTree</t>
+  </si>
+  <si>
+    <t>PASSION TREE CO</t>
+  </si>
+  <si>
+    <t>SharkNinja</t>
+  </si>
+  <si>
+    <t>Shark Ninja</t>
+  </si>
+  <si>
+    <t>SharkNinja Sales Company</t>
+  </si>
+  <si>
+    <t>OtisMcallister</t>
+  </si>
+  <si>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>OTIS MCALLISTER, INC</t>
+  </si>
+  <si>
+    <t>IndianaSugars-NonBonded</t>
+  </si>
+  <si>
+    <t>Joilet</t>
+  </si>
+  <si>
+    <t>INDIANA SUGARS- Non Bonded</t>
+  </si>
+  <si>
+    <t>ELIXPolymers</t>
+  </si>
+  <si>
+    <t>ELIX POLYMERS AMERICAS LLC</t>
+  </si>
+  <si>
+    <t>TheNobleCollection</t>
+  </si>
+  <si>
+    <t>THE NOBLE COLLECTION</t>
+  </si>
+  <si>
+    <t>RoyalIngredients</t>
+  </si>
+  <si>
+    <t>ROYAL INGREDIENTS GROUP USA INC.</t>
+  </si>
+  <si>
+    <t>Royal Ingredients Group USA Inc.</t>
+  </si>
+  <si>
+    <t>NZXT</t>
+  </si>
+  <si>
+    <t>E&amp;SInternationalEnterprises</t>
+  </si>
+  <si>
+    <t>E&amp;S INTERNATIONAL ENTERPRISES, INC</t>
+  </si>
+  <si>
+    <t>E&amp;S INTERNATIONAL ENTERPRISES, INC (NON-BONDED)</t>
+  </si>
+  <si>
+    <t>Turtlebeach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TURTLE BEACH </t>
+  </si>
+  <si>
+    <t>Turtle Beach</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
     <t>HIH LOGISTICS, INC</t>
-  </si>
-  <si>
-    <t>Seabrook</t>
-  </si>
-  <si>
-    <t>Bimonthly</t>
-  </si>
-  <si>
-    <t>HIH LOGISTICS INC -- Fontana/Inovation/Seabrook</t>
-  </si>
-  <si>
-    <t>TRINA SOLAR-HIH LOGISTICS,INC.FONTANA/POOLER</t>
-  </si>
-  <si>
-    <t>Innovation</t>
-  </si>
-  <si>
-    <t>VITA COCO</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>ALL MARKET INC / VITA COCO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> VITA COCO</t>
-  </si>
-  <si>
-    <t>Morgan Lakes</t>
-  </si>
-  <si>
-    <t>Valley View</t>
-  </si>
-  <si>
-    <t>ViaBaron</t>
-  </si>
-  <si>
-    <t>ZOOMGET, LLC</t>
-  </si>
-  <si>
-    <t>Weekly</t>
-  </si>
-  <si>
-    <t>CIRCUIT CITY CORPORATION INC</t>
-  </si>
-  <si>
-    <t>Aterian</t>
-  </si>
-  <si>
-    <t>Savannah</t>
-  </si>
-  <si>
-    <t>ATERIAN GROUP, INC.</t>
-  </si>
-  <si>
-    <t>DeerStags</t>
-  </si>
-  <si>
-    <t>DEER STAGS</t>
-  </si>
-  <si>
-    <t>July&amp;CoPTYLTD</t>
-  </si>
-  <si>
-    <t>Grand Prairie</t>
-  </si>
-  <si>
-    <t>JULY &amp; CO PTY LTD</t>
-  </si>
-  <si>
-    <t>LeeKumKee</t>
-  </si>
-  <si>
-    <t>LEE KUM KEE (U.S.A.) INC.</t>
-  </si>
-  <si>
-    <t>Luna Wellness LLC</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>Outer Inc</t>
-  </si>
-  <si>
-    <t>Willow</t>
-  </si>
-  <si>
-    <t>OUTER, INC</t>
-  </si>
-  <si>
-    <t>Planahead</t>
-  </si>
-  <si>
-    <t>Fontana</t>
-  </si>
-  <si>
-    <t>PLANAHEAD</t>
-  </si>
-  <si>
-    <t>PLANAHEAD,LLC.</t>
-  </si>
-  <si>
-    <t>SG Company</t>
-  </si>
-  <si>
-    <t>THE SG COMPANIES</t>
-  </si>
-  <si>
-    <t>Murphy</t>
-  </si>
-  <si>
-    <t>Bexco Enterprises</t>
-  </si>
-  <si>
-    <t>BEXCO ENTERPRISES, INC</t>
-  </si>
-  <si>
-    <t>MILLION DOLLAR BABY</t>
-  </si>
-  <si>
-    <t>Simple Modern</t>
-  </si>
-  <si>
-    <t>SIMPLE MODERN</t>
-  </si>
-  <si>
-    <t>Sunrise Global Marketing</t>
-  </si>
-  <si>
-    <t>Tacoma</t>
-  </si>
-  <si>
-    <t>SUNRISE GLOBAL MARKETING, LLC</t>
-  </si>
-  <si>
-    <t>Charleston</t>
-  </si>
-  <si>
-    <t>Sans Wine &amp; Spirits</t>
-  </si>
-  <si>
-    <t>SANS WINE &amp; SPIRITS</t>
-  </si>
-  <si>
-    <t>Toughbuilt Industries</t>
-  </si>
-  <si>
-    <t>TOUGHBUILT INDUSTRIES, INC.</t>
-  </si>
-  <si>
-    <t>Euromarket Designs Inc</t>
-  </si>
-  <si>
-    <t>Euromarket Designs, Inc.</t>
-  </si>
-  <si>
-    <t>International Textile &amp; Apparel Inc</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL TEXTILE &amp; APPAREL, INC</t>
-  </si>
-  <si>
-    <t>INTERNATIONAL TEXTILE &amp; APPAREL</t>
-  </si>
-  <si>
-    <t>Castlery USA</t>
-  </si>
-  <si>
-    <t>CASTLERY USA</t>
-  </si>
-  <si>
-    <t>The Fifty Fifty Group</t>
-  </si>
-  <si>
-    <t>THE FIFTY/FIFTY GROUP, INC DBA LOLA PRODUCTS</t>
-  </si>
-  <si>
-    <t>Tytus Grills, LLC</t>
-  </si>
-  <si>
-    <t>TYTUS GRILLS, LLC</t>
-  </si>
-  <si>
-    <t>JSONIC SERVICES</t>
-  </si>
-  <si>
-    <t>Redbluff</t>
-  </si>
-  <si>
-    <t>JSONIC SERVICES INC</t>
-  </si>
-  <si>
-    <t>Cooler Master</t>
-  </si>
-  <si>
-    <t>COOLER MASTER</t>
-  </si>
-  <si>
-    <t>TCU Trading LTD</t>
-  </si>
-  <si>
-    <t>Greenwood</t>
-  </si>
-  <si>
-    <t>TCU TRADING LTD</t>
-  </si>
-  <si>
-    <t>Galanz Americas Limited Company</t>
-  </si>
-  <si>
-    <t>GALANZ AMERICAS LIMITED COMPANY</t>
-  </si>
-  <si>
-    <t>SCHC-Wilsonart</t>
-  </si>
-  <si>
-    <t>SCHC - Wilsonart</t>
-  </si>
-  <si>
-    <t>Delta Electronics</t>
-  </si>
-  <si>
-    <t>DELTA ELECTRONICS</t>
-  </si>
-  <si>
-    <t>DELTA ELECTRONICS (AMERICAS)LTD-NEW</t>
-  </si>
-  <si>
-    <t>Acme Food Sales</t>
-  </si>
-  <si>
-    <t>ACME FOOD SALES INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aterian Group Inc</t>
-  </si>
-  <si>
-    <t>BA Sports Nutrition</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>BA SPORTS NUTRITION LLC</t>
-  </si>
-  <si>
-    <t>Banyan International</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>BANYAN INTERNATIONAL</t>
-  </si>
-  <si>
-    <t>EPI</t>
-  </si>
-  <si>
-    <t>ENVISION PERIPHERALS INC.(EPI Non-Bonded)</t>
-  </si>
-  <si>
-    <t>Envision Peripherals, Inc</t>
-  </si>
-  <si>
-    <t>Intradeco Ivory</t>
-  </si>
-  <si>
-    <t>INTRADECO-IVORY</t>
-  </si>
-  <si>
-    <t>Intradeco Knothe</t>
-  </si>
-  <si>
-    <t>INTRADECO-KNOTHE</t>
-  </si>
-  <si>
-    <t>King's Hawaiian</t>
-  </si>
-  <si>
-    <t>KING'S HAWAIIAN</t>
-  </si>
-  <si>
-    <t>Quality 4400</t>
-  </si>
-  <si>
-    <t>Pepsico</t>
-  </si>
-  <si>
-    <t>PEPSICO</t>
-  </si>
-  <si>
-    <t>SafeCatch</t>
-  </si>
-  <si>
-    <t>SAFE CATCH, INC.</t>
-  </si>
-  <si>
-    <t>Sunpower Corporation</t>
-  </si>
-  <si>
-    <t>SUNPOWER CORPORATION</t>
-  </si>
-  <si>
-    <t>SunPower - Riverside</t>
-  </si>
-  <si>
-    <t>Surf 9 LLC</t>
-  </si>
-  <si>
-    <t>Lakewood</t>
-  </si>
-  <si>
-    <t>SURF 9 LLC</t>
-  </si>
-  <si>
-    <t>Lumistella Company</t>
-  </si>
-  <si>
-    <t>THE LUMISTELLA COMPANY</t>
-  </si>
-  <si>
-    <t>Passion Tree</t>
-  </si>
-  <si>
-    <t>PASSION TREE CO</t>
-  </si>
-  <si>
-    <t>Shark Ninja</t>
-  </si>
-  <si>
-    <t>SharkNinja Sales Company</t>
-  </si>
-  <si>
-    <t>Otis Mcallister</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>OTIS MCALLISTER, INC</t>
-  </si>
-  <si>
-    <t>Indiana Sugars-Non Bonded</t>
-  </si>
-  <si>
-    <t>Joilet</t>
-  </si>
-  <si>
-    <t>INDIANA SUGARS- Non Bonded</t>
-  </si>
-  <si>
-    <t>ELIX Polymers</t>
-  </si>
-  <si>
-    <t>ELIX POLYMERS AMERICAS LLC</t>
-  </si>
-  <si>
-    <t>The Noble Collection</t>
-  </si>
-  <si>
-    <t>THE NOBLE COLLECTION</t>
-  </si>
-  <si>
-    <t>Royal Ingredients</t>
-  </si>
-  <si>
-    <t>ROYAL INGREDIENTS GROUP USA INC.</t>
-  </si>
-  <si>
-    <t>Royal Ingredients Group USA Inc.</t>
-  </si>
-  <si>
-    <t>NZXT</t>
-  </si>
-  <si>
-    <t>E&amp;S International Enterprises</t>
-  </si>
-  <si>
-    <t>E&amp;S INTERNATIONAL ENTERPRISES, INC</t>
-  </si>
-  <si>
-    <t>E&amp;S INTERNATIONAL ENTERPRISES, INC (NON-BONDED)</t>
-  </si>
-  <si>
-    <t>Turtlebeach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURTLE BEACH </t>
-  </si>
-  <si>
-    <t>Turtle Beach</t>
-  </si>
-  <si>
-    <t>AccountID</t>
   </si>
   <si>
     <t xml:space="preserve">International Textile &amp; Apparel </t>
@@ -975,16 +990,16 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -995,10 +1010,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -1009,10 +1024,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -1023,10 +1038,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -1034,13 +1049,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -1048,13 +1063,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -1062,13 +1077,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -1076,13 +1091,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -1090,13 +1105,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1104,13 +1119,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1118,13 +1133,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -1132,13 +1147,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -1146,13 +1161,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -1160,13 +1175,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -1174,13 +1189,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -1188,13 +1203,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -1202,13 +1217,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -1216,13 +1231,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -1230,13 +1245,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -1244,13 +1259,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -1258,13 +1273,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -1272,13 +1287,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1303,7 +1318,7 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1314,7 +1329,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>144</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -1330,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -1338,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -1346,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -1354,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -1362,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -1370,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1378,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1386,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -1394,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -1402,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -1410,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -1418,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -1426,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -1434,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -1442,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -1450,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -1458,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -1466,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -1474,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
@@ -1482,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
@@ -1490,7 +1505,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
@@ -1498,7 +1513,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
@@ -1506,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
@@ -1514,7 +1529,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
@@ -1522,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
@@ -1530,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
@@ -1538,7 +1553,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
@@ -1546,7 +1561,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
@@ -1554,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
@@ -1562,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
@@ -1570,7 +1585,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
@@ -1578,7 +1593,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
@@ -1586,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
@@ -1594,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
@@ -1602,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
@@ -1610,7 +1625,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
@@ -1618,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
@@ -1626,7 +1641,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
@@ -1634,7 +1649,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
@@ -1642,7 +1657,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
@@ -1650,7 +1665,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
@@ -1658,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
@@ -1666,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
@@ -1674,7 +1689,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
@@ -1682,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
@@ -1690,7 +1705,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
@@ -1698,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
@@ -1706,7 +1721,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
@@ -1714,7 +1729,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
@@ -1722,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
@@ -1730,7 +1745,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1849,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>9</v>
@@ -1873,7 +1888,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -1891,10 +1906,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>9</v>
@@ -1912,19 +1927,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1942,10 +1957,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -1954,19 +1969,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -1975,19 +1990,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1996,19 +2011,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -2017,19 +2032,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -2038,19 +2053,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -2059,19 +2074,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -2080,19 +2095,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -2101,19 +2116,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -2122,19 +2137,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -2143,19 +2158,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F19" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -2164,19 +2179,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -2185,19 +2200,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -2206,19 +2221,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -2227,19 +2242,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" s="4"/>
     </row>
@@ -2248,19 +2263,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -2269,19 +2284,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -2290,19 +2305,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -2311,19 +2326,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -2332,7 +2347,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>14</v>
@@ -2341,10 +2356,10 @@
         <v>9</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -2353,19 +2368,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G29" s="4"/>
     </row>
@@ -2374,19 +2389,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G30" s="4"/>
     </row>
@@ -2395,19 +2410,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G31" s="4"/>
     </row>
@@ -2416,19 +2431,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="G32" s="4"/>
     </row>
@@ -2437,19 +2452,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G33" s="4"/>
     </row>
@@ -2458,7 +2473,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>12</v>
@@ -2467,10 +2482,10 @@
         <v>9</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G34" s="4"/>
     </row>
@@ -2479,19 +2494,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G35" s="4"/>
     </row>
@@ -2500,19 +2515,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G36" s="4"/>
     </row>
@@ -2521,19 +2536,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G37" s="4"/>
     </row>
@@ -2542,19 +2557,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G38" s="4"/>
     </row>
@@ -2563,19 +2578,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G39" s="4"/>
     </row>
@@ -2584,19 +2599,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G40" s="4"/>
     </row>
@@ -2605,19 +2620,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G41" s="4"/>
     </row>
@@ -2626,19 +2641,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G42" s="4"/>
     </row>
@@ -2647,19 +2662,19 @@
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G43" s="4"/>
     </row>
@@ -2668,19 +2683,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G44" s="4"/>
     </row>
@@ -2689,19 +2704,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G45" s="4"/>
     </row>
@@ -2710,19 +2725,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G46" s="4"/>
     </row>
@@ -2731,19 +2746,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G47" s="4"/>
     </row>
@@ -2752,19 +2767,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>14</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G48" s="4"/>
     </row>
@@ -2773,19 +2788,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G49" s="4"/>
     </row>
@@ -2794,19 +2809,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G50" s="4"/>
     </row>
@@ -2815,19 +2830,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G51" s="4"/>
     </row>
@@ -2836,19 +2851,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G52" s="4"/>
     </row>
@@ -2857,19 +2872,19 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G53" s="4"/>
     </row>
@@ -2878,19 +2893,19 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G54" s="4"/>
     </row>
@@ -2899,19 +2914,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G55" s="4"/>
     </row>
@@ -2920,19 +2935,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G56" s="4"/>
     </row>
@@ -2941,19 +2956,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G57" s="4"/>
     </row>
@@ -2962,19 +2977,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G58" s="4"/>
     </row>
@@ -2983,19 +2998,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G59" s="4"/>
     </row>
@@ -3004,19 +3019,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G60" s="4"/>
     </row>
@@ -3025,19 +3040,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G61" s="4"/>
     </row>
@@ -3046,7 +3061,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>12</v>
@@ -3055,10 +3070,10 @@
         <v>9</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G62" s="4"/>
     </row>
@@ -3067,19 +3082,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G63" s="4"/>
     </row>
@@ -3088,19 +3103,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G64" s="4"/>
     </row>
@@ -3109,19 +3124,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G65" s="4"/>
     </row>
@@ -3130,19 +3145,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G66" s="4"/>
     </row>

--- a/BNP Excel Sheet.xlsx
+++ b/BNP Excel Sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="192">
   <si>
     <t>RunID</t>
   </si>
@@ -444,19 +444,22 @@
     <t>Turtlebeach</t>
   </si>
   <si>
+    <t>TURTLE BEACH</t>
+  </si>
+  <si>
+    <t>Turtle Beach</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>HIH LOGISTICS, INC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Textile &amp; Apparel </t>
+  </si>
+  <si>
     <t xml:space="preserve">TURTLE BEACH </t>
-  </si>
-  <si>
-    <t>Turtle Beach</t>
-  </si>
-  <si>
-    <t>AccountID</t>
-  </si>
-  <si>
-    <t>HIH LOGISTICS, INC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Textile &amp; Apparel </t>
   </si>
   <si>
     <t>FacilityID</t>
@@ -990,16 +993,16 @@
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -1010,10 +1013,10 @@
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -1024,10 +1027,10 @@
         <v>12</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
@@ -1038,10 +1041,10 @@
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
@@ -1052,10 +1055,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
@@ -1066,10 +1069,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -1080,10 +1083,10 @@
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -1094,10 +1097,10 @@
         <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -1108,10 +1111,10 @@
         <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
@@ -1122,10 +1125,10 @@
         <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
@@ -1136,10 +1139,10 @@
         <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -1150,10 +1153,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -1164,10 +1167,10 @@
         <v>53</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -1178,10 +1181,10 @@
         <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -1192,10 +1195,10 @@
         <v>73</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -1206,10 +1209,10 @@
         <v>78</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -1220,10 +1223,10 @@
         <v>91</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -1234,10 +1237,10 @@
         <v>94</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -1248,10 +1251,10 @@
         <v>105</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
@@ -1262,10 +1265,10 @@
         <v>114</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
@@ -1276,10 +1279,10 @@
         <v>124</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
@@ -1290,10 +1293,10 @@
         <v>127</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1745,7 +1748,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
